--- a/src/Pickles/MIL_pickles/Output/AN180_TestScript_Desktop_Analysis_System_FR_NFR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN180_TestScript_Desktop_Analysis_System_FR_NFR.xlsx
@@ -15,9 +15,8 @@
     <x:sheet name="PROGRESSDISPLAY" sheetId="8" r:id="rId8"/>
     <x:sheet name="REPOSITIONROI" sheetId="9" r:id="rId9"/>
     <x:sheet name="ROIINDICATOR" sheetId="10" r:id="rId10"/>
-    <x:sheet name="SEEWHATSNEW" sheetId="11" r:id="rId11"/>
-    <x:sheet name="TOGGLEANNOTATION" sheetId="12" r:id="rId12"/>
-    <x:sheet name="TOOTHINDICATOR" sheetId="13" r:id="rId13"/>
+    <x:sheet name="TOGGLEANNOTATION" sheetId="11" r:id="rId11"/>
+    <x:sheet name="TOOTHINDICATOR" sheetId="12" r:id="rId12"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <x:si>
     <x:t>AddROI</x:t>
   </x:si>
@@ -481,84 +480,6 @@
   </x:si>
   <x:si>
     <x:t>caries ROI indicators are brightly coloured</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SeeWhatsNew</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR, @FR029, @UR027, @Analysis, @DesktopOnly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SeeWhatsNewOnStartup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR029-1, @UR027-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I have not dismissed the news for the version installed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I start AssistDent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the what's new form is displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SeeWhatsNewAllVersions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR029-2, @UR027-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an upgrade of AssistDent from the previous version</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the new features were previously dismissed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the what's new form contains the new features</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the new features apply only to the current version</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR029-3, @UR027-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a clean install of AssistDent with no settings files</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the new features apply to the current version and every previous version</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DimissAndDontShowAgain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR029-4, @UR027-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I check the "Don't show me this again" checkbox</x:t>
-  </x:si>
-  <x:si>
-    <x:t>restart AssistDent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AssistDent starts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the what's new form is not displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SeeWhatsNewAfterStartup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR029-5, @UR027-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I have started AssistDent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I access the "See What' New" menu option</x:t>
   </x:si>
   <x:si>
     <x:t>ToggleAnnotation</x:t>
@@ -1030,7 +951,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B12"/>
+  <x:dimension ref="A1:B11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1038,7 +959,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -1088,12 +1009,7 @@
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="B11" s="4" t="s">
-        <x:v>178</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="B12" s="4" t="s">
-        <x:v>193</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1106,9 +1022,8 @@
     <x:hyperlink ref="B7" location="'PROGRESSDISPLAY'!A1" display="ProgressDisplay"/>
     <x:hyperlink ref="B8" location="'REPOSITIONROI'!A1" display="RepositionROI"/>
     <x:hyperlink ref="B9" location="'ROIINDICATOR'!A1" display="ROIIndicator"/>
-    <x:hyperlink ref="B10" location="'SEEWHATSNEW'!A1" display="SeeWhatsNew"/>
-    <x:hyperlink ref="B11" location="'TOGGLEANNOTATION'!A1" display="ToggleAnnotation"/>
-    <x:hyperlink ref="B12" location="'TOOTHINDICATOR'!A1" display="ToothIndicator"/>
+    <x:hyperlink ref="B10" location="'TOGGLEANNOTATION'!A1" display="ToggleAnnotation"/>
+    <x:hyperlink ref="B11" location="'TOOTHINDICATOR'!A1" display="ToothIndicator"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -2745,7 +2660,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D47"/>
+  <x:dimension ref="A1:D22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2784,7 +2699,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -2792,7 +2707,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -2800,58 +2715,58 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="C11" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
-      <x:c r="B12" s="1" t="s">
+      <x:c r="C12" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="B13" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
+    <x:row r="14" spans="1:4">
+      <x:c r="B14" s="1" t="s">
         <x:v>160</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:4"/>
     <x:row r="15" spans="1:4">
-      <x:c r="C15" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
+      <x:c r="B15" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>161</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="C16" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>162</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="16" spans="1:4"/>
     <x:row r="17" spans="1:4">
       <x:c r="C17" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="C18" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="C19" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>163</x:v>
@@ -2859,172 +2774,26 @@
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="C20" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
     </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="C21" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
     <x:row r="22" spans="1:4">
-      <x:c r="B22" s="1" t="s">
-        <x:v>159</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="B23" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>165</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:4"/>
-    <x:row r="25" spans="1:4">
-      <x:c r="C25" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
+      <x:c r="C22" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
         <x:v>166</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:4">
-      <x:c r="C26" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>157</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:4">
-      <x:c r="C27" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:4">
-      <x:c r="C28" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>163</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:4">
-      <x:c r="C29" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>167</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:4">
-      <x:c r="B31" s="1" t="s">
-        <x:v>168</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:4">
-      <x:c r="B32" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>169</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:4"/>
-    <x:row r="34" spans="1:4">
-      <x:c r="C34" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
-        <x:v>156</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:4">
-      <x:c r="C35" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D35" s="0" t="s">
-        <x:v>157</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:4">
-      <x:c r="C36" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:4">
-      <x:c r="C37" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D37" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:4">
-      <x:c r="C38" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D38" s="0" t="s">
-        <x:v>171</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:4">
-      <x:c r="C39" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D39" s="0" t="s">
-        <x:v>172</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:4">
-      <x:c r="C40" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D40" s="0" t="s">
-        <x:v>173</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:4">
-      <x:c r="B42" s="1" t="s">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:4">
-      <x:c r="B43" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:4"/>
-    <x:row r="45" spans="1:4">
-      <x:c r="C45" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D45" s="0" t="s">
-        <x:v>176</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:4">
-      <x:c r="C46" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D46" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:4">
-      <x:c r="C47" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D47" s="0" t="s">
-        <x:v>158</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3041,156 +2810,6 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D22"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="1" t="s">
-        <x:v>178</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4"/>
-    <x:row r="5" spans="1:4">
-      <x:c r="B5" s="1" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4">
-      <x:c r="B6" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>181</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4"/>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="C9" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="C10" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="C11" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="C12" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4">
-      <x:c r="B14" s="1" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="B15" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>187</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4"/>
-    <x:row r="17" spans="1:4">
-      <x:c r="C17" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:4">
-      <x:c r="C18" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="C19" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="C20" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:4">
-      <x:c r="C21" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:4">
-      <x:c r="C22" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheetc.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
   <x:dimension ref="A1:D10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
@@ -3199,7 +2818,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -3207,17 +2826,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -3225,7 +2844,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -3234,7 +2853,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -3250,7 +2869,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
